--- a/ProyectoAgo21/DistribucionProyectoAgo21.xlsx
+++ b/ProyectoAgo21/DistribucionProyectoAgo21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Redes1\ProyectoAgo21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466C603A-EEBC-47DA-BA68-7EDAA7C47962}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9F0AFE-D6AB-455D-95B2-D62CA292115F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -613,10 +613,10 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="42.6328125" customWidth="1"/>
     <col min="3" max="3" width="24.81640625" customWidth="1"/>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="20" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -675,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="20" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -701,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="20" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -727,7 +727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="20" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -753,7 +753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="20" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -779,7 +779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="20" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -805,7 +805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="20" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -831,7 +831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="20" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
@@ -857,7 +857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="20" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
@@ -883,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="20" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="20" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>48</v>
       </c>

--- a/ProyectoAgo21/DistribucionProyectoAgo21.xlsx
+++ b/ProyectoAgo21/DistribucionProyectoAgo21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Redes1\ProyectoAgo21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9F0AFE-D6AB-455D-95B2-D62CA292115F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96C1D0D-5212-4115-BDFE-81564C4D8144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -613,12 +613,12 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H13"/>
+      <selection activeCell="B16" sqref="B16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="42.6328125" customWidth="1"/>
+    <col min="2" max="2" width="32.90625" customWidth="1"/>
     <col min="3" max="3" width="24.81640625" customWidth="1"/>
     <col min="4" max="4" width="18.7265625" customWidth="1"/>
   </cols>
